--- a/RITM_INC_CHG-Details.xlsx
+++ b/RITM_INC_CHG-Details.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbjt_baki/Desktop/Data_Engineering/Metathon/METATHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7555FE0-3763-8945-8507-883F098CD6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2D966-6FEE-1643-9877-220C4F1E6C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{54A95667-31C6-4D40-9237-4FD7C7CD00C8}"/>
+    <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="12300" xr2:uid="{54A95667-31C6-4D40-9237-4FD7C7CD00C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="RITM Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="INC Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="RITM_Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="INC_Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -870,7 +870,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RITM_INC_CHG-Details.xlsx
+++ b/RITM_INC_CHG-Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbjt_baki/Desktop/Data_Engineering/Metathon/METATHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2D966-6FEE-1643-9877-220C4F1E6C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE742A65-0E1C-8B4F-A714-B2CA6F8C47AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="12300" xr2:uid="{54A95667-31C6-4D40-9237-4FD7C7CD00C8}"/>
+    <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="12300" activeTab="1" xr2:uid="{54A95667-31C6-4D40-9237-4FD7C7CD00C8}"/>
   </bookViews>
   <sheets>
     <sheet name="RITM_Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="142">
   <si>
     <t>Raising_Info</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>Configuration_Item</t>
-  </si>
-  <si>
     <t>I have raised above INC for:</t>
   </si>
   <si>
@@ -317,15 +314,9 @@
     <t>VDI is not Launching</t>
   </si>
   <si>
-    <t>GITO-DAO-VDI Support-L3-GLOB</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
-    <t>Failure</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>VDI is experiencing sluggish performance</t>
   </si>
   <si>
-    <t>Slow Response</t>
-  </si>
-  <si>
     <t>vdi is not working.</t>
   </si>
   <si>
@@ -486,25 +474,28 @@
   </si>
   <si>
     <t>Login issue with Server</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Help Desk</t>
+  </si>
+  <si>
+    <t>Internal Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -547,12 +538,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0E750F-B1FC-AC48-A6B3-361CB2449D6C}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1978,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2124061E-5ABB-BE4A-B9DA-6F9192E0B639}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1991,12 +1981,11 @@
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,511 +2007,623 @@
       <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
